--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,40 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="108" windowWidth="2820" windowHeight="7968"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số ngày đi trễ </t>
-  </si>
-  <si>
-    <t>Số ngày nghỉ</t>
-  </si>
-  <si>
-    <t>MÃ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Hồ Duy Quang</t>
   </si>
@@ -52,15 +34,36 @@
   </si>
   <si>
     <t>holehieunhan@gmail.com</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>QuangHD</t>
+  </si>
+  <si>
+    <t>NganLNT</t>
+  </si>
+  <si>
+    <t>NhanHLH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,15 +104,15 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -405,109 +408,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>36346</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>36287</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>36271</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>38879</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39027</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
@@ -11,53 +11,68 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>QuangHD</t>
+  </si>
   <si>
     <t>Hồ Duy Quang</t>
   </si>
   <si>
+    <t>hoduyquang@gmail.com</t>
+  </si>
+  <si>
+    <t>NganLNT</t>
+  </si>
+  <si>
     <t>Lý Ngọc Thu Ngân</t>
   </si>
   <si>
+    <t>lyngocthungan@gmail.com</t>
+  </si>
+  <si>
+    <t>TrungTQ1</t>
+  </si>
+  <si>
+    <t>Trần Quang Trung</t>
+  </si>
+  <si>
+    <t>1999/05/03</t>
+  </si>
+  <si>
+    <t>trung@gmail.com</t>
+  </si>
+  <si>
+    <t>NhânHLH</t>
+  </si>
+  <si>
     <t>Hồ Lê Hiếu Nhân</t>
   </si>
   <si>
-    <t>hoduyquang@gmail.com</t>
-  </si>
-  <si>
-    <t>lyngocthungan@gmail.com</t>
-  </si>
-  <si>
-    <t>holehieunhan@gmail.com</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>birth</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>QuangHD</t>
-  </si>
-  <si>
-    <t>NganLNT</t>
-  </si>
-  <si>
-    <t>NhanHLH</t>
+    <t>2006/06/11</t>
+  </si>
+  <si>
+    <t>hieunhan@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -100,7 +115,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -408,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,19 +438,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -443,16 +458,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>36287</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -460,33 +475,50 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>36271</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>39027</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -426,13 +426,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,104 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>birth</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>QuangHD</t>
-  </si>
-  <si>
-    <t>Hồ Duy Quang</t>
-  </si>
-  <si>
-    <t>hoduyquang@gmail.com</t>
-  </si>
-  <si>
-    <t>NganLNT</t>
-  </si>
-  <si>
-    <t>Lý Ngọc Thu Ngân</t>
-  </si>
-  <si>
-    <t>lyngocthungan@gmail.com</t>
-  </si>
-  <si>
-    <t>TrungTQ1</t>
-  </si>
-  <si>
-    <t>Trần Quang Trung</t>
-  </si>
-  <si>
-    <t>1999/05/03</t>
-  </si>
-  <si>
-    <t>trung@gmail.com</t>
-  </si>
-  <si>
-    <t>NhânHLH</t>
-  </si>
-  <si>
-    <t>Hồ Lê Hiếu Nhân</t>
-  </si>
-  <si>
-    <t>2006/06/11</t>
-  </si>
-  <si>
-    <t>hieunhan@gmail.com</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,25 +53,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -422,103 +355,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="15.6640625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="10.5546875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="23.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>birth</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>QuangHD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hồ Duy Quang</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>36287</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>hoduyquang@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NganLNT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lý Ngọc Thu Ngân</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>36271</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>lyngocthungan@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TrungTQ1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Trần Quang Trung</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>1999/05/03</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>trung@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NhânHLH</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hồ Lê Hiếu Nhân</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2006/06/11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>hieunhan@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>36287</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TienTQ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Trần Quý Tiên</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1999/03/05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>tien@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TrungTQ2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Trần Quang Trung</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1999/03/02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>kfa@,sag</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TrungTQ2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Trần Quang Trung</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>36282</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>kjshg@g,á</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
-        <v>36271</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TrungTQ3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Trần Quang Trung</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1889/05/04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>àd</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -527,30 +600,42 @@
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,19 +53,87 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -368,9 +436,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="15.6640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="10.5546875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="23.33203125"/>
+    <col width="15.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="23.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -591,6 +659,31 @@
       <c r="E9" t="inlineStr">
         <is>
           <t>àd</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TrungHV</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hồ Việt Trung</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1999/03/05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>hoviettrung@gmail.com</t>
         </is>
       </c>
     </row>
@@ -600,7 +693,7 @@
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -618,7 +711,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -636,6 +729,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,43 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\time-attendance-by-face-recognition\data\Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>QuangHD</t>
+  </si>
+  <si>
+    <t>Hồ Duy Quang</t>
+  </si>
+  <si>
+    <t>hoduyquang@gmail.com</t>
+  </si>
+  <si>
+    <t>NganLNT</t>
+  </si>
+  <si>
+    <t>Lý Ngọc Thu Ngân</t>
+  </si>
+  <si>
+    <t>lyngocthungan@gmail.com</t>
+  </si>
+  <si>
+    <t>TrungTQ1</t>
+  </si>
+  <si>
+    <t>Trần Quang Trung</t>
+  </si>
+  <si>
+    <t>1999/05/03</t>
+  </si>
+  <si>
+    <t>trung@gmail.com</t>
+  </si>
+  <si>
+    <t>NhânHLH</t>
+  </si>
+  <si>
+    <t>Hồ Lê Hiếu Nhân</t>
+  </si>
+  <si>
+    <t>2006/06/11</t>
+  </si>
+  <si>
+    <t>hieunhan@gmail.com</t>
+  </si>
+  <si>
+    <t>TienTQ</t>
+  </si>
+  <si>
+    <t>Trần Quý Tiên</t>
+  </si>
+  <si>
+    <t>1999/03/05</t>
+  </si>
+  <si>
+    <t>tien@gmail.com</t>
+  </si>
+  <si>
+    <t>TrungTQ2</t>
+  </si>
+  <si>
+    <t>1999/03/02</t>
+  </si>
+  <si>
+    <t>kfa@,sag</t>
+  </si>
+  <si>
+    <t>kjshg@g,á</t>
+  </si>
+  <si>
+    <t>TrungTQ3</t>
+  </si>
+  <si>
+    <t>1889/05/04</t>
+  </si>
+  <si>
+    <t>àd</t>
+  </si>
+  <si>
+    <t>TrungHV</t>
+  </si>
+  <si>
+    <t>Hồ Việt Trung</t>
+  </si>
+  <si>
+    <t>hoviettrung@gmail.com</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,83 +168,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,268 +475,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="15.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="10.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="23.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>birth</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>QuangHD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Hồ Duy Quang</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
         <v>36287</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>hoduyquang@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>NganLNT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lý Ngọc Thu Ngân</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
         <v>36271</v>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>lyngocthungan@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TrungTQ1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Trần Quang Trung</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>1999/05/03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>trung@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NhânHLH</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Hồ Lê Hiếu Nhân</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2006/06/11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>hieunhan@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TienTQ</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Trần Quý Tiên</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1999/03/05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>tien@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TrungTQ2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Trần Quang Trung</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1999/03/02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>kfa@,sag</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TrungTQ2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Trần Quang Trung</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
         <v>36282</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>kjshg@g,á</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TrungTQ3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Trần Quang Trung</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1889/05/04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>àd</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TrungHV</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Hồ Việt Trung</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1999/03/05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>hoviettrung@gmail.com</t>
-        </is>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -698,36 +673,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>avatar</t>
+  </si>
+  <si>
+    <t>data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +482,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,6 +490,7 @@
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -558,6 +562,9 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\time-attendance-by-face-recognition\data\Models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -38,101 +31,95 @@
     <t>email</t>
   </si>
   <si>
+    <t>avatar</t>
+  </si>
+  <si>
     <t>QuangHD</t>
   </si>
   <si>
+    <t>NganLNT</t>
+  </si>
+  <si>
+    <t>TrungTQ1</t>
+  </si>
+  <si>
+    <t>NhanHLH</t>
+  </si>
+  <si>
+    <t>TienTQ</t>
+  </si>
+  <si>
+    <t>TrungTQ2</t>
+  </si>
+  <si>
+    <t>TrungTQ3</t>
+  </si>
+  <si>
+    <t>TrungHV</t>
+  </si>
+  <si>
     <t>Hồ Duy Quang</t>
   </si>
   <si>
+    <t>Lý Ngọc Thu Ngân</t>
+  </si>
+  <si>
+    <t>Trần Quang Trung</t>
+  </si>
+  <si>
+    <t>Hồ Lê Hiếu Nhân</t>
+  </si>
+  <si>
+    <t>Trần Quý Tiên</t>
+  </si>
+  <si>
+    <t>Hồ Việt Trung</t>
+  </si>
+  <si>
     <t>hoduyquang@gmail.com</t>
   </si>
   <si>
-    <t>NganLNT</t>
-  </si>
-  <si>
-    <t>Lý Ngọc Thu Ngân</t>
-  </si>
-  <si>
     <t>lyngocthungan@gmail.com</t>
   </si>
   <si>
-    <t>TrungTQ1</t>
-  </si>
-  <si>
-    <t>Trần Quang Trung</t>
-  </si>
-  <si>
-    <t>1999/05/03</t>
-  </si>
-  <si>
     <t>trung@gmail.com</t>
   </si>
   <si>
-    <t>NhânHLH</t>
-  </si>
-  <si>
-    <t>Hồ Lê Hiếu Nhân</t>
-  </si>
-  <si>
-    <t>2006/06/11</t>
-  </si>
-  <si>
     <t>hieunhan@gmail.com</t>
   </si>
   <si>
-    <t>TienTQ</t>
-  </si>
-  <si>
-    <t>Trần Quý Tiên</t>
-  </si>
-  <si>
-    <t>1999/03/05</t>
-  </si>
-  <si>
     <t>tien@gmail.com</t>
   </si>
   <si>
-    <t>TrungTQ2</t>
-  </si>
-  <si>
-    <t>1999/03/02</t>
-  </si>
-  <si>
     <t>kfa@,sag</t>
   </si>
   <si>
     <t>kjshg@g,á</t>
   </si>
   <si>
-    <t>TrungTQ3</t>
-  </si>
-  <si>
-    <t>1889/05/04</t>
-  </si>
-  <si>
     <t>àd</t>
   </si>
   <si>
-    <t>TrungHV</t>
-  </si>
-  <si>
-    <t>Hồ Việt Trung</t>
-  </si>
-  <si>
     <t>hoviettrung@gmail.com</t>
   </si>
   <si>
-    <t>avatar</t>
+    <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-19.jpg</t>
   </si>
   <si>
     <t>data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
+  </si>
+  <si>
+    <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,9 +128,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,30 +152,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -235,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,10 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,227 +470,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
         <v>36287</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
         <v>36271</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>36283</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
         <v>17</v>
       </c>
+      <c r="D5" s="2">
+        <v>38879</v>
+      </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>36224</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="2">
+        <v>36221</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
         <v>36282</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>36282</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
+        <v>36224</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,144 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>birth</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>QuangHD</t>
-  </si>
-  <si>
-    <t>NganLNT</t>
-  </si>
-  <si>
-    <t>TrungTQ1</t>
-  </si>
-  <si>
-    <t>NhanHLH</t>
-  </si>
-  <si>
-    <t>TienTQ</t>
-  </si>
-  <si>
-    <t>TrungTQ2</t>
-  </si>
-  <si>
-    <t>TrungTQ3</t>
-  </si>
-  <si>
-    <t>TrungHV</t>
-  </si>
-  <si>
-    <t>Hồ Duy Quang</t>
-  </si>
-  <si>
-    <t>Lý Ngọc Thu Ngân</t>
-  </si>
-  <si>
-    <t>Trần Quang Trung</t>
-  </si>
-  <si>
-    <t>Hồ Lê Hiếu Nhân</t>
-  </si>
-  <si>
-    <t>Trần Quý Tiên</t>
-  </si>
-  <si>
-    <t>Hồ Việt Trung</t>
-  </si>
-  <si>
-    <t>hoduyquang@gmail.com</t>
-  </si>
-  <si>
-    <t>lyngocthungan@gmail.com</t>
-  </si>
-  <si>
-    <t>trung@gmail.com</t>
-  </si>
-  <si>
-    <t>hieunhan@gmail.com</t>
-  </si>
-  <si>
-    <t>tien@gmail.com</t>
-  </si>
-  <si>
-    <t>kfa@,sag</t>
-  </si>
-  <si>
-    <t>kjshg@g,á</t>
-  </si>
-  <si>
-    <t>àd</t>
-  </si>
-  <si>
-    <t>hoviettrung@gmail.com</t>
-  </si>
-  <si>
-    <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-19.jpg</t>
-  </si>
-  <si>
-    <t>data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
-  </si>
-  <si>
-    <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -171,18 +71,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,194 +438,296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>birth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avatar</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>QuangHD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hồ Duy Quang</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>36287</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>hoduyquang@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NganLNT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lý Ngọc Thu Ngân</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>36271</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lyngocthungan@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-19.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TrungTQ1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Trần Quang Trung</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>36283</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>trung@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NhanHLH</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hồ Lê Hiếu Nhân</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>38879</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>hieunhan@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>36287</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TienTQ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Trần Quý Tiên</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>36224</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>tien@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2">
-        <v>36271</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TrungTQ2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Trần Quang Trung</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>36221</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>kfa@,sag</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2">
-        <v>36283</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TrungTQ2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Trần Quang Trung</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>36282</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>kjshg@g,á</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2">
-        <v>38879</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TrungTQ3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Trần Quang Trung</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>36282</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>àd</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TrungHV</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hồ Việt Trung</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>36224</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>hoviettrung@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2">
-        <v>36221</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36282</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>36282</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <v>36224</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TrungTQ4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Trần Quang Trung</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>44505</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>jha@gmail.com</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,44 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>QuangHD</t>
+  </si>
+  <si>
+    <t>NganLNT</t>
+  </si>
+  <si>
+    <t>TrungTQ1</t>
+  </si>
+  <si>
+    <t>NhanHLH</t>
+  </si>
+  <si>
+    <t>TienTQ</t>
+  </si>
+  <si>
+    <t>TrungTQ2</t>
+  </si>
+  <si>
+    <t>TrungTQ3</t>
+  </si>
+  <si>
+    <t>TrungHV</t>
+  </si>
+  <si>
+    <t>TrungTQ4</t>
+  </si>
+  <si>
+    <t>Hồ Duy Quang</t>
+  </si>
+  <si>
+    <t>Lý Ngọc Thu Ngân</t>
+  </si>
+  <si>
+    <t>Trần Quang Trung</t>
+  </si>
+  <si>
+    <t>Hồ Lê Hiếu Nhân</t>
+  </si>
+  <si>
+    <t>Trần Quý Tiên</t>
+  </si>
+  <si>
+    <t>Hồ Việt Trung</t>
+  </si>
+  <si>
+    <t>hoduyquang@gmail.com</t>
+  </si>
+  <si>
+    <t>lyngocthungan@gmail.com</t>
+  </si>
+  <si>
+    <t>trung@gmail.com</t>
+  </si>
+  <si>
+    <t>hieunhan@gmail.com</t>
+  </si>
+  <si>
+    <t>tien@gmail.com</t>
+  </si>
+  <si>
+    <t>kfa@,sag</t>
+  </si>
+  <si>
+    <t>kjshg@g,á</t>
+  </si>
+  <si>
+    <t>àd</t>
+  </si>
+  <si>
+    <t>hoviettrung@gmail.com</t>
+  </si>
+  <si>
+    <t>jha@gmail.com</t>
+  </si>
+  <si>
+    <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-19.jpg</t>
+  </si>
+  <si>
+    <t>data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
+  </si>
+  <si>
+    <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
+  </si>
+  <si>
+    <t>data/face_train/TrungTQ2/2021-05-11-16-49-05-335656.jpg</t>
+  </si>
+  <si>
+    <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-11-16-31-49-425201.jpg</t>
+  </si>
+  <si>
+    <t>data/face_train/TrungTQ4/2021-05-11-16-43-59-380232.jpg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,86 +186,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -438,296 +485,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>birth</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>QuangHD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Hồ Duy Quang</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
         <v>36287</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>hoduyquang@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>NganLNT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Lý Ngọc Thu Ngân</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
         <v>36271</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>lyngocthungan@gmail.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-19.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TrungTQ1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Trần Quang Trung</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
         <v>36283</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>trung@gmail.com</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NhanHLH</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Hồ Lê Hiếu Nhân</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
         <v>38879</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>hieunhan@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TienTQ</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Trần Quý Tiên</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
         <v>36224</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>tien@gmail.com</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TrungTQ2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Trần Quang Trung</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
         <v>36221</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>kfa@,sag</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TrungTQ2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Trần Quang Trung</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
         <v>36282</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>kjshg@g,á</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TrungTQ3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Trần Quang Trung</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
         <v>36282</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>àd</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TrungHV</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Hồ Việt Trung</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
         <v>36224</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>hoviettrung@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TrungTQ4</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Trần Quang Trung</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
         <v>44505</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>jha@gmail.com</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -109,19 +109,10 @@
     <t>jha@gmail.com</t>
   </si>
   <si>
-    <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-19.jpg</t>
-  </si>
-  <si>
-    <t>data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
-  </si>
-  <si>
-    <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-05_21-44-20.jpg</t>
+    <t>data/face_train/TrungTQ4/2021-05-11-16-43-57-991777.jpg</t>
   </si>
   <si>
     <t>data/face_train/TrungTQ2/2021-05-11-16-49-05-335656.jpg</t>
-  </si>
-  <si>
-    <t>E:/workspace/time-attendance-by-face-recognition/data/face_train/TrungHV/2021-05-11-16-31-49-425201.jpg</t>
   </si>
   <si>
     <t>data/face_train/TrungTQ4/2021-05-11-16-43-59-380232.jpg</t>
@@ -132,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -545,9 +536,6 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
@@ -565,9 +553,6 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
@@ -585,6 +570,9 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
@@ -602,9 +590,6 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
@@ -623,7 +608,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -643,7 +628,7 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -679,9 +664,6 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
@@ -700,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\time-attendance-by-face-recognition\data\Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -92,9 +97,6 @@
   </si>
   <si>
     <t>tien@gmail.com</t>
-  </si>
-  <si>
-    <t>kfa@,sag</t>
   </si>
   <si>
     <t>kjshg@g,á</t>
@@ -121,11 +123,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +191,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -235,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,9 +277,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,6 +312,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,14 +488,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -520,7 +537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -537,7 +554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -554,7 +571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -571,10 +588,10 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -591,9 +608,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -602,21 +619,21 @@
         <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>36221</v>
+        <v>36282</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -627,62 +644,42 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>36282</v>
+        <v>36224</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>36224</v>
+        <v>44505</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44505</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
+      <c r="F10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -492,7 +492,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,6 +661,9 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -109,15 +109,6 @@
   </si>
   <si>
     <t>jha@gmail.com</t>
-  </si>
-  <si>
-    <t>data/face_train/TrungTQ4/2021-05-11-16-43-57-991777.jpg</t>
-  </si>
-  <si>
-    <t>data/face_train/TrungTQ2/2021-05-11-16-49-05-335656.jpg</t>
-  </si>
-  <si>
-    <t>data/face_train/TrungTQ4/2021-05-11-16-43-59-380232.jpg</t>
   </si>
 </sst>
 </file>
@@ -492,12 +483,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -587,9 +580,6 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -624,9 +614,6 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -661,9 +648,6 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -680,9 +664,6 @@
       </c>
       <c r="E10" t="s">
         <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\time-attendance-by-face-recognition\data\Models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -109,16 +104,19 @@
   </si>
   <si>
     <t>jha@gmail.com</t>
+  </si>
+  <si>
+    <t>data/face_train/TrungHV/2021-05-15-02-41-04-618471.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,14 +180,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -236,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,10 +258,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,7 +292,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,21 +467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -530,7 +511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -547,7 +528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>4</v>
       </c>
@@ -564,7 +545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>5</v>
       </c>
@@ -581,7 +562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>6</v>
       </c>
@@ -598,7 +579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>8</v>
       </c>
@@ -615,7 +596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>9</v>
       </c>
@@ -632,7 +613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>10</v>
       </c>
@@ -648,8 +629,11 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>11</v>
       </c>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\time-attendance-by-face-recognition\data\Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -40,83 +45,32 @@
     <t>NganLNT</t>
   </si>
   <si>
-    <t>TrungTQ1</t>
-  </si>
-  <si>
-    <t>NhanHLH</t>
-  </si>
-  <si>
-    <t>TienTQ</t>
-  </si>
-  <si>
-    <t>TrungTQ2</t>
-  </si>
-  <si>
-    <t>TrungTQ3</t>
-  </si>
-  <si>
-    <t>TrungHV</t>
-  </si>
-  <si>
-    <t>TrungTQ4</t>
-  </si>
-  <si>
     <t>Hồ Duy Quang</t>
   </si>
   <si>
     <t>Lý Ngọc Thu Ngân</t>
   </si>
   <si>
-    <t>Trần Quang Trung</t>
-  </si>
-  <si>
-    <t>Hồ Lê Hiếu Nhân</t>
-  </si>
-  <si>
-    <t>Trần Quý Tiên</t>
-  </si>
-  <si>
-    <t>Hồ Việt Trung</t>
-  </si>
-  <si>
     <t>hoduyquang@gmail.com</t>
   </si>
   <si>
     <t>lyngocthungan@gmail.com</t>
   </si>
   <si>
-    <t>trung@gmail.com</t>
-  </si>
-  <si>
-    <t>hieunhan@gmail.com</t>
-  </si>
-  <si>
-    <t>tien@gmail.com</t>
-  </si>
-  <si>
-    <t>kjshg@g,á</t>
-  </si>
-  <si>
-    <t>àd</t>
-  </si>
-  <si>
-    <t>hoviettrung@gmail.com</t>
-  </si>
-  <si>
-    <t>jha@gmail.com</t>
-  </si>
-  <si>
-    <t>data/face_train/TrungHV/2021-05-15-02-41-04-618471.jpg</t>
+    <t>data/face_train/QuangHD/2021-05-15-03-18-46-389227.jpg</t>
+  </si>
+  <si>
+    <t>data/face_train/NganLNT/2021-05-15-03-39-07-182901.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +134,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -226,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,14 +431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,16 +471,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>36287</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -519,136 +491,38 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>36271</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2">
-        <v>36283</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>38879</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
-        <v>36224</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>36282</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36282</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>36224</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44505</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -42,25 +42,25 @@
     <t>QuangHD</t>
   </si>
   <si>
-    <t>NganLNT</t>
+    <t>QuangTrung</t>
   </si>
   <si>
     <t>Hồ Duy Quang</t>
   </si>
   <si>
-    <t>Lý Ngọc Thu Ngân</t>
+    <t>Trần Quang Trung</t>
   </si>
   <si>
     <t>hoduyquang@gmail.com</t>
   </si>
   <si>
-    <t>lyngocthungan@gmail.com</t>
-  </si>
-  <si>
-    <t>data/face_train/QuangHD/2021-05-15-03-18-46-389227.jpg</t>
-  </si>
-  <si>
-    <t>data/face_train/NganLNT/2021-05-15-03-39-07-182901.jpg</t>
+    <t>quangtrung@gmail.com</t>
+  </si>
+  <si>
+    <t>data/face_train/QuangTrung/2021-05-17-14-12-56-012379.jpg</t>
+  </si>
+  <si>
+    <t>sdafdsafasdfsad</t>
   </si>
 </sst>
 </file>
@@ -432,16 +432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -480,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -500,29 +497,8 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\time-attendance-by-face-recognition\data\Models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -42,7 +37,7 @@
     <t>QuangHD</t>
   </si>
   <si>
-    <t>QuangTrung</t>
+    <t>TrungTQ</t>
   </si>
   <si>
     <t>Hồ Duy Quang</t>
@@ -58,19 +53,17 @@
   </si>
   <si>
     <t>data/face_train/QuangTrung/2021-05-17-14-12-56-012379.jpg</t>
-  </si>
-  <si>
-    <t>sdafdsafasdfsad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,26 +115,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -188,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,10 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,16 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -476,11 +458,8 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -490,7 +469,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>36271</v>
       </c>
       <c r="E3" t="s">

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,88 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>birth</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>QuangHD</t>
-  </si>
-  <si>
-    <t>TrungTQ</t>
-  </si>
-  <si>
-    <t>Hồ Duy Quang</t>
-  </si>
-  <si>
-    <t>Trần Quang Trung</t>
-  </si>
-  <si>
-    <t>hoduyquang@gmail.com</t>
-  </si>
-  <si>
-    <t>quangtrung@gmail.com</t>
-  </si>
-  <si>
-    <t>data/face_train/QuangTrung/2021-05-17-14-12-56-012379.jpg</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -115,19 +70,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,68 +436,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>birth</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avatar</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>QuangHD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hồ Duy Quang</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>36287</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>duyquang@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>view/images/avatar-default.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>36287</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>36271</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TrungTQ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Trần Quang Trung</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>36308</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>trung@gmial.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>view/images/avatar-default.png</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/Models/Employee.xlsx
+++ b/data/Models/Employee.xlsx
@@ -1,43 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tranq\Documents\time-attendance-by-face-recognition\data\Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,85 +95,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,105 +401,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>birth</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>QuangHD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Hồ Duy Quang</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>36287</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>duyquang@gmail.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>view/images/avatar-default.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TrungTQ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Trần Quang Trung</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>36308</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>trung@gmial.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>view/images/avatar-default.png</t>
-        </is>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
